--- a/OpenCart-TestExecution Results.xlsx
+++ b/OpenCart-TestExecution Results.xlsx
@@ -9035,6 +9035,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -9055,7 +9056,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -22668,37 +22668,37 @@
       <c r="J8" s="32"/>
     </row>
     <row r="9" spans="7:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="H9" s="63" t="s">
+      <c r="H9" s="64" t="s">
         <v>2270</v>
       </c>
       <c r="I9" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="71"/>
+      <c r="J9" s="63"/>
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="7:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="H10" s="64"/>
+      <c r="H10" s="65"/>
       <c r="I10" s="35"/>
-      <c r="J10" s="71"/>
+      <c r="J10" s="63"/>
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="7:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="H11" s="64"/>
+      <c r="H11" s="65"/>
       <c r="I11" s="35"/>
-      <c r="J11" s="71"/>
+      <c r="J11" s="63"/>
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="7:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="H12" s="64"/>
+      <c r="H12" s="65"/>
       <c r="I12" s="35"/>
-      <c r="J12" s="71"/>
+      <c r="J12" s="63"/>
       <c r="K12" s="1"/>
     </row>
     <row r="13" spans="7:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="H13" s="65"/>
+      <c r="H13" s="66"/>
       <c r="I13" s="35"/>
-      <c r="J13" s="71"/>
+      <c r="J13" s="63"/>
       <c r="K13" s="1"/>
     </row>
   </sheetData>
@@ -22770,10 +22770,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="70" t="s">
         <v>1087</v>
       </c>
-      <c r="B2" s="69"/>
+      <c r="B2" s="70"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -23173,10 +23173,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="70" t="s">
         <v>1087</v>
       </c>
-      <c r="B2" s="69"/>
+      <c r="B2" s="70"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -24183,10 +24183,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="70" t="s">
         <v>1087</v>
       </c>
-      <c r="B2" s="69"/>
+      <c r="B2" s="70"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -25602,10 +25602,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="70" t="s">
         <v>1087</v>
       </c>
-      <c r="B2" s="69"/>
+      <c r="B2" s="70"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -26165,10 +26165,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="70" t="s">
         <v>1087</v>
       </c>
-      <c r="B2" s="69"/>
+      <c r="B2" s="70"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -27249,10 +27249,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="70" t="s">
         <v>1087</v>
       </c>
-      <c r="B2" s="69"/>
+      <c r="B2" s="70"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -27792,10 +27792,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="70" t="s">
         <v>1087</v>
       </c>
-      <c r="B2" s="69"/>
+      <c r="B2" s="70"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -28535,10 +28535,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="70" t="s">
         <v>1087</v>
       </c>
-      <c r="B2" s="69"/>
+      <c r="B2" s="70"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -29278,10 +29278,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="70" t="s">
         <v>1087</v>
       </c>
-      <c r="B2" s="69"/>
+      <c r="B2" s="70"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -30421,10 +30421,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="70" t="s">
         <v>1087</v>
       </c>
-      <c r="B2" s="69"/>
+      <c r="B2" s="70"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -31075,55 +31075,55 @@
       <c r="A2" s="36" t="s">
         <v>1069</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="68" t="s">
         <v>1119</v>
       </c>
-      <c r="C2" s="66"/>
+      <c r="C2" s="67"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
         <v>1070</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="68" t="s">
         <v>1120</v>
       </c>
-      <c r="C3" s="66"/>
+      <c r="C3" s="67"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
         <v>1071</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="67" t="s">
         <v>2271</v>
       </c>
-      <c r="C4" s="66"/>
+      <c r="C4" s="67"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
         <v>1072</v>
       </c>
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="67" t="s">
         <v>2259</v>
       </c>
-      <c r="C5" s="66"/>
+      <c r="C5" s="67"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
         <v>1073</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="67" t="s">
         <v>2257</v>
       </c>
-      <c r="C6" s="66"/>
+      <c r="C6" s="67"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
         <v>1074</v>
       </c>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="67" t="s">
         <v>2257</v>
       </c>
-      <c r="C7" s="66"/>
+      <c r="C7" s="67"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
@@ -31777,10 +31777,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="70" t="s">
         <v>1087</v>
       </c>
-      <c r="B2" s="69"/>
+      <c r="B2" s="70"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -32269,10 +32269,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="70" t="s">
         <v>1087</v>
       </c>
-      <c r="B2" s="69"/>
+      <c r="B2" s="70"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -32913,10 +32913,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="70" t="s">
         <v>1087</v>
       </c>
-      <c r="B2" s="69"/>
+      <c r="B2" s="70"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -33659,10 +33659,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="70" t="s">
         <v>1087</v>
       </c>
-      <c r="B2" s="69"/>
+      <c r="B2" s="70"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -34253,10 +34253,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="70" t="s">
         <v>1087</v>
       </c>
-      <c r="B2" s="69"/>
+      <c r="B2" s="70"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -35195,10 +35195,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="70" t="s">
         <v>1087</v>
       </c>
-      <c r="B2" s="69"/>
+      <c r="B2" s="70"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -35837,10 +35837,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="70" t="s">
         <v>1087</v>
       </c>
-      <c r="B2" s="69"/>
+      <c r="B2" s="70"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -36381,10 +36381,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="70" t="s">
         <v>1087</v>
       </c>
-      <c r="B2" s="69"/>
+      <c r="B2" s="70"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -37927,10 +37927,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="70" t="s">
         <v>1087</v>
       </c>
-      <c r="B2" s="69"/>
+      <c r="B2" s="70"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -38669,10 +38669,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="70" t="s">
         <v>1087</v>
       </c>
-      <c r="B2" s="69"/>
+      <c r="B2" s="70"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -39359,7 +39359,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -39414,10 +39414,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="69" t="s">
         <v>1087</v>
       </c>
-      <c r="B2" s="68"/>
+      <c r="B2" s="69"/>
       <c r="C2" s="53"/>
       <c r="D2" s="53"/>
       <c r="E2" s="53"/>
@@ -40425,10 +40425,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="70" t="s">
         <v>1087</v>
       </c>
-      <c r="B2" s="69"/>
+      <c r="B2" s="70"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -41078,10 +41078,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="70" t="s">
         <v>1087</v>
       </c>
-      <c r="B2" s="69"/>
+      <c r="B2" s="70"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -41970,10 +41970,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="70" t="s">
         <v>1087</v>
       </c>
-      <c r="B2" s="69"/>
+      <c r="B2" s="70"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -43178,10 +43178,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="71" t="s">
         <v>1087</v>
       </c>
-      <c r="B2" s="70"/>
+      <c r="B2" s="71"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -43420,10 +43420,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="69" t="s">
         <v>1087</v>
       </c>
-      <c r="B2" s="68"/>
+      <c r="B2" s="69"/>
       <c r="C2" s="53"/>
       <c r="D2" s="53"/>
       <c r="E2" s="53"/>
@@ -44292,10 +44292,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="70" t="s">
         <v>1087</v>
       </c>
-      <c r="B2" s="69"/>
+      <c r="B2" s="70"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -44765,10 +44765,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="70" t="s">
         <v>1087</v>
       </c>
-      <c r="B2" s="69"/>
+      <c r="B2" s="70"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -45839,10 +45839,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="70" t="s">
         <v>1087</v>
       </c>
-      <c r="B2" s="69"/>
+      <c r="B2" s="70"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -46939,10 +46939,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="70" t="s">
         <v>1087</v>
       </c>
-      <c r="B2" s="69"/>
+      <c r="B2" s="70"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -48146,10 +48146,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="70" t="s">
         <v>1087</v>
       </c>
-      <c r="B2" s="69"/>
+      <c r="B2" s="70"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>

--- a/OpenCart-TestExecution Results.xlsx
+++ b/OpenCart-TestExecution Results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="914" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="914"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenarios" sheetId="33" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2935" uniqueCount="1258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2932" uniqueCount="1255">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -4020,9 +4020,6 @@
 2. Cannot copy Password text </t>
   </si>
   <si>
-    <t>1. Password is visible in the page source</t>
-  </si>
-  <si>
     <t>1. User is not allowed to login with old credentials
 2. User is able to login with new credentials</t>
   </si>
@@ -4258,19 +4255,10 @@
     <t>OPENCART-BUG-8</t>
   </si>
   <si>
-    <t>OPENCART-BUG-9</t>
-  </si>
-  <si>
     <t>OPENCART-BUG-12</t>
   </si>
   <si>
-    <t>OPENCART-BUG-13</t>
-  </si>
-  <si>
     <t>OPENCART-BUG-14</t>
-  </si>
-  <si>
-    <t>DD-MM-YYYY</t>
   </si>
   <si>
     <t>1. Warning message is not getting displayed, instead an Account is getting created with the given invalid phone number</t>
@@ -4565,9 +4553,6 @@
     <t>Page Text is not displayed in this page</t>
   </si>
   <si>
-    <t>OPENCART-BUG-18</t>
-  </si>
-  <si>
     <t>TC_HMF_006</t>
   </si>
   <si>
@@ -4786,6 +4771,12 @@
   </si>
   <si>
     <t>Reported Already</t>
+  </si>
+  <si>
+    <t>OPENCART-BUG-10</t>
+  </si>
+  <si>
+    <t>1.  Password text not visible in the Page source</t>
   </si>
 </sst>
 </file>
@@ -5074,7 +5065,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5263,6 +5254,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5829,8 +5823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E25"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -5848,7 +5842,7 @@
         <v>504</v>
       </c>
       <c r="B2" s="66" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="C2" s="67"/>
     </row>
@@ -5866,7 +5860,7 @@
         <v>506</v>
       </c>
       <c r="B4" s="65" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="C4" s="65"/>
     </row>
@@ -5875,7 +5869,7 @@
         <v>507</v>
       </c>
       <c r="B5" s="65" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="C5" s="65"/>
     </row>
@@ -5883,8 +5877,8 @@
       <c r="A6" s="44" t="s">
         <v>508</v>
       </c>
-      <c r="B6" s="65" t="s">
-        <v>1113</v>
+      <c r="B6" s="68">
+        <v>45163</v>
       </c>
       <c r="C6" s="65"/>
     </row>
@@ -5892,9 +5886,7 @@
       <c r="A7" s="44" t="s">
         <v>509</v>
       </c>
-      <c r="B7" s="65" t="s">
-        <v>1113</v>
-      </c>
+      <c r="B7" s="65"/>
       <c r="C7" s="65"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -5919,7 +5911,7 @@
         <v>521</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="C10" s="38" t="s">
         <v>523</v>
@@ -5936,7 +5928,7 @@
         <v>85</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="C11" s="41" t="s">
         <v>524</v>
@@ -5953,7 +5945,7 @@
         <v>106</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="C12" s="41" t="s">
         <v>525</v>
@@ -5970,7 +5962,7 @@
         <v>131</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="C13" s="41" t="s">
         <v>526</v>
@@ -5987,7 +5979,7 @@
         <v>182</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="C14" s="41" t="s">
         <v>527</v>
@@ -6004,7 +5996,7 @@
         <v>234</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="C15" s="41" t="s">
         <v>528</v>
@@ -6021,7 +6013,7 @@
         <v>273</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="C16" s="41" t="s">
         <v>529</v>
@@ -6038,7 +6030,7 @@
         <v>335</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="C17" s="41" t="s">
         <v>530</v>
@@ -6055,7 +6047,7 @@
         <v>350</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="C18" s="41" t="s">
         <v>531</v>
@@ -6072,7 +6064,7 @@
         <v>389</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="C19" s="41" t="s">
         <v>532</v>
@@ -6089,7 +6081,7 @@
         <v>432</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="C20" s="41" t="s">
         <v>533</v>
@@ -6106,7 +6098,7 @@
         <v>441</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="C21" s="41" t="s">
         <v>519</v>
@@ -6120,13 +6112,13 @@
     </row>
     <row r="22" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="36" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="B22" s="37" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="C22" s="41" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="D22" s="39" t="s">
         <v>520</v>
@@ -6137,13 +6129,13 @@
     </row>
     <row r="23" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="36" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="C23" s="60" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
       <c r="D23" s="39" t="s">
         <v>517</v>
@@ -6154,10 +6146,10 @@
     </row>
     <row r="24" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="36" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="B24" s="37" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="C24" s="43" t="s">
         <v>534</v>
@@ -6195,7 +6187,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I2" sqref="I2:I20"/>
     </sheetView>
   </sheetViews>
@@ -6252,7 +6244,7 @@
     </row>
     <row r="2" spans="1:11" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>350</v>
@@ -6273,7 +6265,7 @@
         <v>352</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>516</v>
@@ -6306,7 +6298,7 @@
         <v>356</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>515</v>
@@ -6339,7 +6331,7 @@
         <v>352</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>520</v>
@@ -6372,7 +6364,7 @@
         <v>352</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>520</v>
@@ -6405,7 +6397,7 @@
         <v>360</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>520</v>
@@ -6438,7 +6430,7 @@
         <v>360</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>520</v>
@@ -6471,7 +6463,7 @@
         <v>360</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>516</v>
@@ -6504,7 +6496,7 @@
         <v>360</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>520</v>
@@ -6537,7 +6529,7 @@
         <v>360</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>515</v>
@@ -6570,7 +6562,7 @@
         <v>366</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>520</v>
@@ -6603,7 +6595,7 @@
         <v>368</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>520</v>
@@ -6636,7 +6628,7 @@
         <v>378</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>520</v>
@@ -6669,7 +6661,7 @@
         <v>380</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>520</v>
@@ -6702,7 +6694,7 @@
         <v>381</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>520</v>
@@ -6735,7 +6727,7 @@
         <v>382</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>520</v>
@@ -6768,7 +6760,7 @@
         <v>384</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>520</v>
@@ -6801,7 +6793,7 @@
         <v>385</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>520</v>
@@ -6834,7 +6826,7 @@
         <v>386</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>520</v>
@@ -6867,7 +6859,7 @@
         <v>387</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>520</v>
@@ -6894,7 +6886,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I2" sqref="I2:I17"/>
     </sheetView>
   </sheetViews>
@@ -6971,7 +6963,7 @@
         <v>391</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>516</v>
@@ -7004,7 +6996,7 @@
         <v>391</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>516</v>
@@ -7037,7 +7029,7 @@
         <v>391</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>520</v>
@@ -7070,7 +7062,7 @@
         <v>418</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>520</v>
@@ -7103,7 +7095,7 @@
         <v>391</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>520</v>
@@ -7136,7 +7128,7 @@
         <v>399</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>520</v>
@@ -7169,7 +7161,7 @@
         <v>401</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>520</v>
@@ -7202,7 +7194,7 @@
         <v>413</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>520</v>
@@ -7211,7 +7203,7 @@
         <v>1002</v>
       </c>
       <c r="K9" s="56" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="127.5" x14ac:dyDescent="0.25">
@@ -7237,7 +7229,7 @@
         <v>403</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>520</v>
@@ -7270,7 +7262,7 @@
         <v>405</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>520</v>
@@ -7303,7 +7295,7 @@
         <v>407</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>520</v>
@@ -7336,7 +7328,7 @@
         <v>414</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>520</v>
@@ -7369,7 +7361,7 @@
         <v>415</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>516</v>
@@ -7402,7 +7394,7 @@
         <v>417</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>520</v>
@@ -7435,7 +7427,7 @@
         <v>420</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>520</v>
@@ -7468,7 +7460,7 @@
         <v>421</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>520</v>
@@ -7495,7 +7487,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I2" sqref="I2:I11"/>
     </sheetView>
   </sheetViews>
@@ -7573,7 +7565,7 @@
         <v>433</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>520</v>
@@ -7606,7 +7598,7 @@
         <v>433</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>520</v>
@@ -7639,7 +7631,7 @@
         <v>433</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>520</v>
@@ -7672,7 +7664,7 @@
         <v>433</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>520</v>
@@ -7702,10 +7694,10 @@
         <v>10</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>520</v>
@@ -7738,7 +7730,7 @@
         <v>436</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>520</v>
@@ -7756,22 +7748,22 @@
         <v>432</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>116</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>520</v>
@@ -7804,7 +7796,7 @@
         <v>433</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>520</v>
@@ -7837,7 +7829,7 @@
         <v>438</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>520</v>
@@ -7870,7 +7862,7 @@
         <v>439</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>520</v>
@@ -7898,7 +7890,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I2" sqref="I2:I18"/>
     </sheetView>
   </sheetViews>
@@ -7976,7 +7968,7 @@
         <v>443</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>515</v>
@@ -8009,7 +8001,7 @@
         <v>445</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>516</v>
@@ -8042,7 +8034,7 @@
         <v>445</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>516</v>
@@ -8075,7 +8067,7 @@
         <v>445</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>516</v>
@@ -8099,7 +8091,7 @@
         <v>355</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>184</v>
@@ -8108,7 +8100,7 @@
         <v>451</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>516</v>
@@ -8141,7 +8133,7 @@
         <v>452</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>516</v>
@@ -8174,7 +8166,7 @@
         <v>452</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>516</v>
@@ -8207,7 +8199,7 @@
         <v>455</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>516</v>
@@ -8240,7 +8232,7 @@
         <v>457</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>516</v>
@@ -8273,7 +8265,7 @@
         <v>464</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>516</v>
@@ -8306,7 +8298,7 @@
         <v>464</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>516</v>
@@ -8339,7 +8331,7 @@
         <v>455</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>516</v>
@@ -8372,7 +8364,7 @@
         <v>465</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>516</v>
@@ -8405,7 +8397,7 @@
         <v>466</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>516</v>
@@ -8438,7 +8430,7 @@
         <v>467</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>516</v>
@@ -8471,7 +8463,7 @@
         <v>470</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>520</v>
@@ -8504,7 +8496,7 @@
         <v>471</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>520</v>
@@ -8574,7 +8566,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I2" sqref="I2:I14"/>
     </sheetView>
   </sheetViews>
@@ -8652,7 +8644,7 @@
         <v>476</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>520</v>
@@ -8685,7 +8677,7 @@
         <v>476</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>520</v>
@@ -8718,7 +8710,7 @@
         <v>476</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>520</v>
@@ -8751,7 +8743,7 @@
         <v>479</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>516</v>
@@ -8784,7 +8776,7 @@
         <v>482</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>520</v>
@@ -8817,7 +8809,7 @@
         <v>483</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>520</v>
@@ -8850,7 +8842,7 @@
         <v>485</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>520</v>
@@ -8883,7 +8875,7 @@
         <v>487</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>520</v>
@@ -8916,7 +8908,7 @@
         <v>489</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>520</v>
@@ -8949,7 +8941,7 @@
         <v>491</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>520</v>
@@ -8982,7 +8974,7 @@
         <v>472</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>520</v>
@@ -9015,7 +9007,7 @@
         <v>494</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>520</v>
@@ -9048,7 +9040,7 @@
         <v>496</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>520</v>
@@ -9111,8 +9103,8 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2:I21"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9167,28 +9159,28 @@
     </row>
     <row r="2" spans="1:11" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A2" s="63" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="B2" s="63" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="C2" s="64" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="D2" s="64" t="s">
         <v>116</v>
       </c>
       <c r="E2" s="64" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="F2" s="63" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="64" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
       <c r="H2" s="64" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I2" s="63" t="s">
         <v>520</v>
@@ -9200,28 +9192,28 @@
     </row>
     <row r="3" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A3" s="63" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="B3" s="63" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="C3" s="64" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="D3" s="64" t="s">
         <v>116</v>
       </c>
       <c r="E3" s="64" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="F3" s="63" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="64" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="H3" s="64" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I3" s="63" t="s">
         <v>520</v>
@@ -9233,28 +9225,28 @@
     </row>
     <row r="4" spans="1:11" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A4" s="63" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="B4" s="63" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="C4" s="64" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="D4" s="64" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
       <c r="E4" s="64" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="F4" s="63" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="64" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="H4" s="64" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I4" s="63" t="s">
         <v>520</v>
@@ -9266,28 +9258,28 @@
     </row>
     <row r="5" spans="1:11" ht="114" x14ac:dyDescent="0.25">
       <c r="A5" s="63" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="C5" s="64" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="D5" s="64" t="s">
         <v>116</v>
       </c>
       <c r="E5" s="64" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="F5" s="63" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="64" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="H5" s="64" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I5" s="63" t="s">
         <v>520</v>
@@ -9299,28 +9291,28 @@
     </row>
     <row r="6" spans="1:11" ht="57" x14ac:dyDescent="0.25">
       <c r="A6" s="63" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
       <c r="B6" s="63" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="C6" s="64" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="D6" s="64" t="s">
         <v>116</v>
       </c>
       <c r="E6" s="64" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
       <c r="F6" s="63" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="64" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="H6" s="64" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="I6" s="63" t="s">
         <v>520</v>
@@ -9329,33 +9321,33 @@
         <v>1002</v>
       </c>
       <c r="K6" s="63" t="s">
-        <v>1253</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A7" s="63" t="s">
-        <v>1191</v>
+        <v>1186</v>
       </c>
       <c r="B7" s="63" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="C7" s="64" t="s">
-        <v>1192</v>
+        <v>1187</v>
       </c>
       <c r="D7" s="64" t="s">
         <v>116</v>
       </c>
       <c r="E7" s="64" t="s">
-        <v>1193</v>
+        <v>1188</v>
       </c>
       <c r="F7" s="63" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="64" t="s">
-        <v>1194</v>
+        <v>1189</v>
       </c>
       <c r="H7" s="64" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="I7" s="63" t="s">
         <v>520</v>
@@ -9364,33 +9356,33 @@
         <v>1002</v>
       </c>
       <c r="K7" s="63" t="s">
-        <v>1254</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A8" s="63" t="s">
-        <v>1195</v>
+        <v>1190</v>
       </c>
       <c r="B8" s="63" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="C8" s="64" t="s">
-        <v>1196</v>
+        <v>1191</v>
       </c>
       <c r="D8" s="64" t="s">
         <v>116</v>
       </c>
       <c r="E8" s="64" t="s">
-        <v>1197</v>
+        <v>1192</v>
       </c>
       <c r="F8" s="63" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="64" t="s">
-        <v>1198</v>
+        <v>1193</v>
       </c>
       <c r="H8" s="64" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="I8" s="63" t="s">
         <v>520</v>
@@ -9399,33 +9391,33 @@
         <v>1002</v>
       </c>
       <c r="K8" s="63" t="s">
-        <v>1255</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A9" s="63" t="s">
-        <v>1199</v>
+        <v>1194</v>
       </c>
       <c r="B9" s="63" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="C9" s="64" t="s">
-        <v>1200</v>
+        <v>1195</v>
       </c>
       <c r="D9" s="64" t="s">
         <v>116</v>
       </c>
       <c r="E9" s="64" t="s">
-        <v>1201</v>
+        <v>1196</v>
       </c>
       <c r="F9" s="63" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="64" t="s">
-        <v>1202</v>
+        <v>1197</v>
       </c>
       <c r="H9" s="64" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="I9" s="63" t="s">
         <v>520</v>
@@ -9434,33 +9426,33 @@
         <v>1002</v>
       </c>
       <c r="K9" s="63" t="s">
-        <v>1190</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A10" s="63" t="s">
-        <v>1203</v>
+        <v>1198</v>
       </c>
       <c r="B10" s="63" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="C10" s="64" t="s">
-        <v>1204</v>
+        <v>1199</v>
       </c>
       <c r="D10" s="64" t="s">
         <v>116</v>
       </c>
       <c r="E10" s="64" t="s">
-        <v>1205</v>
+        <v>1200</v>
       </c>
       <c r="F10" s="63" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="64" t="s">
-        <v>1206</v>
+        <v>1201</v>
       </c>
       <c r="H10" s="64" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I10" s="63" t="s">
         <v>520</v>
@@ -9472,28 +9464,28 @@
     </row>
     <row r="11" spans="1:11" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A11" s="63" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
       <c r="B11" s="63" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="C11" s="64" t="s">
-        <v>1208</v>
+        <v>1203</v>
       </c>
       <c r="D11" s="64" t="s">
         <v>116</v>
       </c>
       <c r="E11" s="64" t="s">
-        <v>1209</v>
+        <v>1204</v>
       </c>
       <c r="F11" s="63" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="64" t="s">
-        <v>1210</v>
+        <v>1205</v>
       </c>
       <c r="H11" s="64" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I11" s="63" t="s">
         <v>520</v>
@@ -9505,28 +9497,28 @@
     </row>
     <row r="12" spans="1:11" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A12" s="63" t="s">
-        <v>1211</v>
+        <v>1206</v>
       </c>
       <c r="B12" s="63" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="C12" s="64" t="s">
-        <v>1212</v>
+        <v>1207</v>
       </c>
       <c r="D12" s="64" t="s">
         <v>116</v>
       </c>
       <c r="E12" s="64" t="s">
-        <v>1213</v>
+        <v>1208</v>
       </c>
       <c r="F12" s="63" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="64" t="s">
-        <v>1214</v>
+        <v>1209</v>
       </c>
       <c r="H12" s="64" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I12" s="63" t="s">
         <v>520</v>
@@ -9538,28 +9530,28 @@
     </row>
     <row r="13" spans="1:11" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A13" s="63" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="B13" s="63" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="C13" s="64" t="s">
-        <v>1216</v>
+        <v>1211</v>
       </c>
       <c r="D13" s="64" t="s">
         <v>116</v>
       </c>
       <c r="E13" s="64" t="s">
-        <v>1217</v>
+        <v>1212</v>
       </c>
       <c r="F13" s="63" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="64" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
       <c r="H13" s="64" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I13" s="63" t="s">
         <v>520</v>
@@ -9571,28 +9563,28 @@
     </row>
     <row r="14" spans="1:11" ht="114" x14ac:dyDescent="0.25">
       <c r="A14" s="63" t="s">
-        <v>1218</v>
+        <v>1213</v>
       </c>
       <c r="B14" s="63" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="C14" s="64" t="s">
-        <v>1219</v>
+        <v>1214</v>
       </c>
       <c r="D14" s="64" t="s">
         <v>116</v>
       </c>
       <c r="E14" s="64" t="s">
-        <v>1220</v>
+        <v>1215</v>
       </c>
       <c r="F14" s="63" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="64" t="s">
-        <v>1221</v>
+        <v>1216</v>
       </c>
       <c r="H14" s="64" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I14" s="63" t="s">
         <v>520</v>
@@ -9604,28 +9596,28 @@
     </row>
     <row r="15" spans="1:11" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A15" s="63" t="s">
-        <v>1222</v>
+        <v>1217</v>
       </c>
       <c r="B15" s="63" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="C15" s="64" t="s">
-        <v>1223</v>
+        <v>1218</v>
       </c>
       <c r="D15" s="64" t="s">
         <v>355</v>
       </c>
       <c r="E15" s="64" t="s">
-        <v>1224</v>
+        <v>1219</v>
       </c>
       <c r="F15" s="63" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="64" t="s">
-        <v>1225</v>
+        <v>1220</v>
       </c>
       <c r="H15" s="64" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I15" s="63" t="s">
         <v>520</v>
@@ -9637,28 +9629,28 @@
     </row>
     <row r="16" spans="1:11" ht="114" x14ac:dyDescent="0.25">
       <c r="A16" s="63" t="s">
-        <v>1226</v>
+        <v>1221</v>
       </c>
       <c r="B16" s="63" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="C16" s="64" t="s">
-        <v>1227</v>
+        <v>1222</v>
       </c>
       <c r="D16" s="64" t="s">
         <v>116</v>
       </c>
       <c r="E16" s="64" t="s">
-        <v>1228</v>
+        <v>1223</v>
       </c>
       <c r="F16" s="63" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="64" t="s">
-        <v>1229</v>
+        <v>1224</v>
       </c>
       <c r="H16" s="64" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I16" s="63" t="s">
         <v>520</v>
@@ -9670,28 +9662,28 @@
     </row>
     <row r="17" spans="1:11" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A17" s="63" t="s">
-        <v>1230</v>
+        <v>1225</v>
       </c>
       <c r="B17" s="63" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="C17" s="64" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="D17" s="64" t="s">
         <v>116</v>
       </c>
       <c r="E17" s="64" t="s">
-        <v>1232</v>
+        <v>1227</v>
       </c>
       <c r="F17" s="63" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="64" t="s">
-        <v>1233</v>
+        <v>1228</v>
       </c>
       <c r="H17" s="64" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I17" s="63" t="s">
         <v>520</v>
@@ -9703,28 +9695,28 @@
     </row>
     <row r="18" spans="1:11" ht="57" x14ac:dyDescent="0.25">
       <c r="A18" s="63" t="s">
-        <v>1234</v>
+        <v>1229</v>
       </c>
       <c r="B18" s="63" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="C18" s="64" t="s">
-        <v>1235</v>
+        <v>1230</v>
       </c>
       <c r="D18" s="64" t="s">
         <v>116</v>
       </c>
       <c r="E18" s="64" t="s">
-        <v>1236</v>
+        <v>1231</v>
       </c>
       <c r="F18" s="63" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="64" t="s">
-        <v>1237</v>
+        <v>1232</v>
       </c>
       <c r="H18" s="64" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I18" s="63" t="s">
         <v>520</v>
@@ -9736,28 +9728,28 @@
     </row>
     <row r="19" spans="1:11" ht="57" x14ac:dyDescent="0.25">
       <c r="A19" s="63" t="s">
-        <v>1238</v>
+        <v>1233</v>
       </c>
       <c r="B19" s="63" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="C19" s="64" t="s">
-        <v>1239</v>
+        <v>1234</v>
       </c>
       <c r="D19" s="64" t="s">
         <v>116</v>
       </c>
       <c r="E19" s="64" t="s">
-        <v>1240</v>
+        <v>1235</v>
       </c>
       <c r="F19" s="63" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="64" t="s">
-        <v>1241</v>
+        <v>1236</v>
       </c>
       <c r="H19" s="64" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I19" s="63" t="s">
         <v>520</v>
@@ -9769,28 +9761,28 @@
     </row>
     <row r="20" spans="1:11" ht="57" x14ac:dyDescent="0.25">
       <c r="A20" s="63" t="s">
-        <v>1242</v>
+        <v>1237</v>
       </c>
       <c r="B20" s="63" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="C20" s="64" t="s">
-        <v>1243</v>
+        <v>1238</v>
       </c>
       <c r="D20" s="64" t="s">
         <v>116</v>
       </c>
       <c r="E20" s="64" t="s">
-        <v>1244</v>
+        <v>1239</v>
       </c>
       <c r="F20" s="63" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="64" t="s">
-        <v>1245</v>
+        <v>1240</v>
       </c>
       <c r="H20" s="64" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I20" s="63" t="s">
         <v>520</v>
@@ -9802,28 +9794,28 @@
     </row>
     <row r="21" spans="1:11" ht="57" x14ac:dyDescent="0.25">
       <c r="A21" s="63" t="s">
-        <v>1246</v>
+        <v>1241</v>
       </c>
       <c r="B21" s="63" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="C21" s="64" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="D21" s="64" t="s">
         <v>116</v>
       </c>
       <c r="E21" s="64" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F21" s="63" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="64" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="H21" s="64" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I21" s="63" t="s">
         <v>520</v>
@@ -9843,7 +9835,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I2" sqref="I2:I4"/>
     </sheetView>
   </sheetViews>
@@ -9920,7 +9912,7 @@
         <v>499</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>516</v>
@@ -9953,7 +9945,7 @@
         <v>501</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>516</v>
@@ -9986,7 +9978,7 @@
         <v>503</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>516</v>
@@ -10094,10 +10086,10 @@
         <v>10</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="I2" s="46" t="s">
         <v>516</v>
@@ -10139,7 +10131,7 @@
         <v>1002</v>
       </c>
       <c r="K3" s="47" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="180" x14ac:dyDescent="0.25">
@@ -10165,7 +10157,7 @@
         <v>12</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="I4" s="46" t="s">
         <v>515</v>
@@ -10195,7 +10187,7 @@
         <v>10</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="H5" s="23" t="s">
         <v>1003</v>
@@ -10357,7 +10349,7 @@
         <v>796</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="G10" s="22" t="s">
         <v>17</v>
@@ -10390,7 +10382,7 @@
         <v>797</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="G11" s="22" t="s">
         <v>18</v>
@@ -10429,7 +10421,7 @@
         <v>20</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="I12" s="46" t="s">
         <v>520</v>
@@ -10438,7 +10430,7 @@
         <v>1002</v>
       </c>
       <c r="K12" s="47" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="162" x14ac:dyDescent="0.25">
@@ -10539,12 +10531,12 @@
         <v>1002</v>
       </c>
       <c r="K15" s="47" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="126" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="B16" s="21" t="s">
         <v>9</v>
@@ -10574,7 +10566,7 @@
         <v>1002</v>
       </c>
       <c r="K16" s="47" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="234" x14ac:dyDescent="0.25">
@@ -10609,7 +10601,7 @@
         <v>1002</v>
       </c>
       <c r="K17" s="47" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="126" x14ac:dyDescent="0.25">
@@ -10668,7 +10660,7 @@
         <v>28</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="I19" s="46" t="s">
         <v>520</v>
@@ -10963,8 +10955,8 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2:I23"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -11035,7 +11027,7 @@
         <v>819</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="G2" s="22" t="s">
         <v>86</v>
@@ -11101,7 +11093,7 @@
         <v>821</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="G4" s="22" t="s">
         <v>88</v>
@@ -11134,7 +11126,7 @@
         <v>822</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="G5" s="22" t="s">
         <v>88</v>
@@ -11233,7 +11225,7 @@
         <v>810</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="G8" s="22" t="s">
         <v>90</v>
@@ -11299,7 +11291,7 @@
         <v>812</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="G10" s="22" t="s">
         <v>92</v>
@@ -11314,7 +11306,7 @@
         <v>1002</v>
       </c>
       <c r="K10" s="21" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="198" x14ac:dyDescent="0.25">
@@ -11334,7 +11326,7 @@
         <v>813</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="G11" s="22" t="s">
         <v>93</v>
@@ -11349,12 +11341,12 @@
         <v>1002</v>
       </c>
       <c r="K11" s="21" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="162" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="B12" s="21" t="s">
         <v>85</v>
@@ -11451,7 +11443,7 @@
       </c>
       <c r="K14" s="19"/>
     </row>
-    <row r="15" spans="1:11" ht="144" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>76</v>
       </c>
@@ -11474,17 +11466,15 @@
         <v>97</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>1033</v>
+        <v>1254</v>
       </c>
       <c r="I15" s="21" t="s">
         <v>515</v>
       </c>
       <c r="J15" s="51" t="s">
-        <v>1002</v>
-      </c>
-      <c r="K15" s="21" t="s">
-        <v>1108</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="K15" s="19"/>
     </row>
     <row r="16" spans="1:11" ht="288" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
@@ -11503,13 +11493,13 @@
         <v>824</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="G16" s="22" t="s">
         <v>98</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="I16" s="21" t="s">
         <v>515</v>
@@ -11536,13 +11526,13 @@
         <v>825</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="G17" s="22" t="s">
         <v>99</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="I17" s="21" t="s">
         <v>520</v>
@@ -11552,7 +11542,7 @@
       </c>
       <c r="K17" s="19"/>
     </row>
-    <row r="18" spans="1:11" ht="198" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="180" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
         <v>79</v>
       </c>
@@ -11569,13 +11559,13 @@
         <v>826</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="G18" s="22" t="s">
         <v>100</v>
       </c>
       <c r="H18" s="22" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="I18" s="21" t="s">
         <v>520</v>
@@ -11584,7 +11574,7 @@
         <v>1002</v>
       </c>
       <c r="K18" s="21" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="162" x14ac:dyDescent="0.25">
@@ -11610,7 +11600,7 @@
         <v>101</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="I19" s="21" t="s">
         <v>520</v>
@@ -11643,7 +11633,7 @@
         <v>102</v>
       </c>
       <c r="H20" s="22" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="I20" s="21" t="s">
         <v>520</v>
@@ -11676,7 +11666,7 @@
         <v>36</v>
       </c>
       <c r="H21" s="22" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="I21" s="21" t="s">
         <v>520</v>
@@ -11709,7 +11699,7 @@
         <v>103</v>
       </c>
       <c r="H22" s="22" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="I22" s="21" t="s">
         <v>520</v>
@@ -11742,7 +11732,7 @@
         <v>104</v>
       </c>
       <c r="H23" s="22" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="I23" s="21" t="s">
         <v>520</v>
@@ -11768,7 +11758,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
     </sheetView>
@@ -11846,7 +11836,7 @@
         <v>108</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>516</v>
@@ -11879,7 +11869,7 @@
         <v>108</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>520</v>
@@ -11912,7 +11902,7 @@
         <v>112</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>520</v>
@@ -11945,7 +11935,7 @@
         <v>114</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>516</v>
@@ -11954,7 +11944,7 @@
         <v>1002</v>
       </c>
       <c r="K5" s="30" t="s">
-        <v>1257</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11980,7 +11970,7 @@
         <v>117</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>520</v>
@@ -12013,7 +12003,7 @@
         <v>119</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>520</v>
@@ -12046,7 +12036,7 @@
         <v>123</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>520</v>
@@ -12064,7 +12054,7 @@
         <v>106</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>125</v>
@@ -12079,7 +12069,7 @@
         <v>126</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>520</v>
@@ -12112,7 +12102,7 @@
         <v>128</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>520</v>
@@ -12133,7 +12123,7 @@
         <v>596</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>836</v>
@@ -12145,7 +12135,7 @@
         <v>129</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>520</v>
@@ -12171,9 +12161,9 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2:I26"/>
+      <selection pane="bottomLeft" activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12247,10 +12237,10 @@
         <v>10</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>516</v>
@@ -12259,7 +12249,7 @@
         <v>1029</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
@@ -12285,7 +12275,7 @@
         <v>134</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>515</v>
@@ -12294,7 +12284,7 @@
         <v>1029</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
@@ -12311,7 +12301,7 @@
         <v>136</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>10</v>
@@ -12320,7 +12310,7 @@
         <v>137</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>515</v>
@@ -12329,7 +12319,7 @@
         <v>1029</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="114.75" x14ac:dyDescent="0.2">
@@ -12355,7 +12345,7 @@
         <v>141</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>515</v>
@@ -12364,7 +12354,7 @@
         <v>1029</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
@@ -12387,10 +12377,10 @@
         <v>10</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>515</v>
@@ -12423,7 +12413,7 @@
         <v>155</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>515</v>
@@ -12432,7 +12422,7 @@
         <v>1029</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="165.75" x14ac:dyDescent="0.2">
@@ -12458,7 +12448,7 @@
         <v>156</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>515</v>
@@ -12467,7 +12457,7 @@
         <v>1029</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
@@ -12493,7 +12483,7 @@
         <v>158</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>520</v>
@@ -12502,7 +12492,7 @@
         <v>1029</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
@@ -12528,7 +12518,7 @@
         <v>159</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>520</v>
@@ -12537,7 +12527,7 @@
         <v>1029</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
@@ -12563,7 +12553,7 @@
         <v>102</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>520</v>
@@ -12572,7 +12562,7 @@
         <v>1029</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
@@ -12598,7 +12588,7 @@
         <v>163</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>520</v>
@@ -12607,7 +12597,7 @@
         <v>1029</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
@@ -12633,7 +12623,7 @@
         <v>164</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>520</v>
@@ -12642,7 +12632,7 @@
         <v>1029</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
@@ -12668,7 +12658,7 @@
         <v>165</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>520</v>
@@ -12677,7 +12667,7 @@
         <v>1029</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
@@ -12703,7 +12693,7 @@
         <v>166</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>520</v>
@@ -12712,7 +12702,7 @@
         <v>1029</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
@@ -12735,10 +12725,10 @@
         <v>10</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>520</v>
@@ -12804,7 +12794,7 @@
         <v>169</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>520</v>
@@ -12831,13 +12821,13 @@
         <v>851</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>170</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>520</v>
@@ -12870,7 +12860,7 @@
         <v>172</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>520</v>
@@ -12903,7 +12893,7 @@
         <v>177</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>520</v>
@@ -12936,7 +12926,7 @@
         <v>178</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>520</v>
@@ -12969,7 +12959,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>520</v>
@@ -12978,7 +12968,7 @@
         <v>1002</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>1165</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
@@ -13004,7 +12994,7 @@
         <v>180</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>520</v>
@@ -13016,28 +13006,28 @@
     </row>
     <row r="25" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A25" s="30" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="B25" s="28" t="s">
         <v>131</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="F25" s="27" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="29" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="H25" s="29" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="I25" s="27" t="s">
         <v>515</v>
@@ -13046,33 +13036,33 @@
         <v>1029</v>
       </c>
       <c r="K25" s="29" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" s="30" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="B26" s="31" t="s">
         <v>131</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="E26" s="32" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="F26" s="30" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="32" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="H26" s="32" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="I26" s="30" t="s">
         <v>515</v>
@@ -13081,7 +13071,7 @@
         <v>1029</v>
       </c>
       <c r="K26" s="32" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
   </sheetData>
@@ -13101,8 +13091,8 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2:I23"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13178,7 +13168,7 @@
         <v>185</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>516</v>
@@ -13205,13 +13195,13 @@
         <v>858</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>187</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>515</v>
@@ -13244,7 +13234,7 @@
         <v>189</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>515</v>
@@ -13277,7 +13267,7 @@
         <v>185</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>516</v>
@@ -13310,7 +13300,7 @@
         <v>194</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>515</v>
@@ -13376,7 +13366,7 @@
         <v>185</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>515</v>
@@ -13403,13 +13393,13 @@
         <v>862</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>200</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>520</v>
@@ -13442,7 +13432,7 @@
         <v>202</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>520</v>
@@ -13475,7 +13465,7 @@
         <v>205</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>520</v>
@@ -13508,7 +13498,7 @@
         <v>209</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>520</v>
@@ -13541,7 +13531,7 @@
         <v>210</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>520</v>
@@ -13574,7 +13564,7 @@
         <v>212</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>520</v>
@@ -13604,10 +13594,10 @@
         <v>193</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>520</v>
@@ -13640,7 +13630,7 @@
         <v>215</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>520</v>
@@ -13673,7 +13663,7 @@
         <v>217</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>520</v>
@@ -13706,7 +13696,7 @@
         <v>219</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>520</v>
@@ -13739,7 +13729,7 @@
         <v>222</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>520</v>
@@ -13772,7 +13762,7 @@
         <v>224</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>520</v>
@@ -13781,7 +13771,7 @@
         <v>1002</v>
       </c>
       <c r="K20" s="31" t="s">
-        <v>1110</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
@@ -13807,7 +13797,7 @@
         <v>227</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>520</v>
@@ -13840,7 +13830,7 @@
         <v>230</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>520</v>
@@ -13873,7 +13863,7 @@
         <v>231</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>520</v>
@@ -13900,7 +13890,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I2" sqref="I2:I25"/>
     </sheetView>
   </sheetViews>
@@ -13978,7 +13968,7 @@
         <v>235</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>516</v>
@@ -14011,7 +14001,7 @@
         <v>235</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>520</v>
@@ -14044,7 +14034,7 @@
         <v>235</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>520</v>
@@ -14077,7 +14067,7 @@
         <v>235</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>520</v>
@@ -14110,7 +14100,7 @@
         <v>235</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>520</v>
@@ -14143,7 +14133,7 @@
         <v>235</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>520</v>
@@ -14176,7 +14166,7 @@
         <v>235</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>520</v>
@@ -14209,7 +14199,7 @@
         <v>242</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>520</v>
@@ -14242,7 +14232,7 @@
         <v>242</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>520</v>
@@ -14275,7 +14265,7 @@
         <v>245</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>520</v>
@@ -14308,7 +14298,7 @@
         <v>248</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>520</v>
@@ -14341,7 +14331,7 @@
         <v>251</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>520</v>
@@ -14374,7 +14364,7 @@
         <v>253</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>520</v>
@@ -14407,7 +14397,7 @@
         <v>655</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>516</v>
@@ -14440,7 +14430,7 @@
         <v>657</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>515</v>
@@ -14473,7 +14463,7 @@
         <v>659</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>520</v>
@@ -14506,7 +14496,7 @@
         <v>661</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>520</v>
@@ -14539,7 +14529,7 @@
         <v>663</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>520</v>
@@ -14572,7 +14562,7 @@
         <v>665</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>520</v>
@@ -14602,10 +14592,10 @@
         <v>258</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>520</v>
@@ -14635,10 +14625,10 @@
         <v>258</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>515</v>
@@ -14668,7 +14658,7 @@
         <v>258</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="H23" s="8" t="s">
         <v>268</v>
@@ -14704,7 +14694,7 @@
         <v>271</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>520</v>
@@ -14737,7 +14727,7 @@
         <v>272</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>515</v>
@@ -14764,9 +14754,9 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2:I31"/>
+    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14822,7 +14812,7 @@
     </row>
     <row r="2" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>273</v>
@@ -14843,7 +14833,7 @@
         <v>277</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>520</v>
@@ -14876,7 +14866,7 @@
         <v>281</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>520</v>
@@ -14909,7 +14899,7 @@
         <v>278</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>520</v>
@@ -14927,7 +14917,7 @@
         <v>273</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>116</v>
@@ -14939,10 +14929,10 @@
         <v>184</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>520</v>
@@ -14975,7 +14965,7 @@
         <v>288</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>520</v>
@@ -14984,7 +14974,7 @@
         <v>1002</v>
       </c>
       <c r="K6" s="31" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="102" x14ac:dyDescent="0.2">
@@ -15010,7 +15000,7 @@
         <v>286</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>520</v>
@@ -15022,7 +15012,7 @@
     </row>
     <row r="8" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A8" s="30" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>273</v>
@@ -15043,7 +15033,7 @@
         <v>289</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>520</v>
@@ -15076,7 +15066,7 @@
         <v>290</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>520</v>
@@ -15109,7 +15099,7 @@
         <v>293</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>520</v>
@@ -15142,7 +15132,7 @@
         <v>295</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>520</v>
@@ -15175,7 +15165,7 @@
         <v>297</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>520</v>
@@ -15208,7 +15198,7 @@
         <v>299</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>520</v>
@@ -15241,7 +15231,7 @@
         <v>301</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>520</v>
@@ -15274,7 +15264,7 @@
         <v>303</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>520</v>
@@ -15307,7 +15297,7 @@
         <v>305</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>520</v>
@@ -15340,7 +15330,7 @@
         <v>307</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>520</v>
@@ -15373,7 +15363,7 @@
         <v>311</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>520</v>
@@ -15406,7 +15396,7 @@
         <v>312</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>520</v>
@@ -15439,7 +15429,7 @@
         <v>316</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>520</v>
@@ -15472,7 +15462,7 @@
         <v>321</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>520</v>
@@ -15505,7 +15495,7 @@
         <v>325</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>520</v>
@@ -15538,7 +15528,7 @@
         <v>326</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>520</v>
@@ -15571,7 +15561,7 @@
         <v>326</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>520</v>
@@ -15604,7 +15594,7 @@
         <v>326</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>520</v>
@@ -15637,7 +15627,7 @@
         <v>326</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>520</v>
@@ -15670,7 +15660,7 @@
         <v>326</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>520</v>
@@ -15703,7 +15693,7 @@
         <v>326</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>520</v>
@@ -15736,7 +15726,7 @@
         <v>332</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I29" s="6" t="s">
         <v>520</v>
@@ -15769,7 +15759,7 @@
         <v>333</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>520</v>
@@ -15802,7 +15792,7 @@
         <v>334</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>520</v>
@@ -15828,8 +15818,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I2" sqref="I2:I10"/>
     </sheetView>
   </sheetViews>
@@ -15906,7 +15896,7 @@
         <v>337</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>516</v>
@@ -15939,7 +15929,7 @@
         <v>337</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>515</v>
@@ -15972,7 +15962,7 @@
         <v>337</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>515</v>
@@ -16005,7 +15995,7 @@
         <v>337</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>515</v>
@@ -16038,7 +16028,7 @@
         <v>337</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>515</v>
@@ -16071,7 +16061,7 @@
         <v>337</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>515</v>
@@ -16104,7 +16094,7 @@
         <v>337</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>515</v>
@@ -16137,7 +16127,7 @@
         <v>348</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>520</v>
@@ -16170,7 +16160,7 @@
         <v>349</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>515</v>
